--- a/05_Excel_compare/version_2.xlsx
+++ b/05_Excel_compare/version_2.xlsx
@@ -299,9 +299,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +334,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +730,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,28 +745,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J1" t="s">
@@ -772,27 +774,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
+      <c r="H2" s="3"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -810,27 +813,28 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
+      <c r="H3" s="3"/>
       <c r="J3">
         <v>1</v>
       </c>
@@ -842,27 +846,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>6</v>
       </c>
+      <c r="H4" s="3"/>
       <c r="J4">
         <v>8</v>
       </c>
@@ -877,27 +882,28 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="J5">
         <v>20</v>
       </c>
@@ -909,27 +915,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
+      <c r="H6" s="3"/>
       <c r="J6">
         <v>22</v>
       </c>
@@ -938,28 +945,28 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J7">
@@ -976,358 +983,370 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>5</v>
       </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>6</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>5</v>
       </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>5</v>
       </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>1</v>
       </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1342,67 +1361,72 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>5</v>
       </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>1</v>
       </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>1</v>
       </c>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05_Excel_compare/version_2.xlsx
+++ b/05_Excel_compare/version_2.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
     <sheet name="8031230-CF01" sheetId="14" r:id="rId2"/>
-    <sheet name="8031270-CF01" sheetId="13" r:id="rId3"/>
-    <sheet name="8031280-BF01" sheetId="12" r:id="rId4"/>
-    <sheet name="8031300-CF01" sheetId="11" r:id="rId5"/>
+    <sheet name="8031270-CF01" sheetId="20" r:id="rId3"/>
+    <sheet name="8031280-BF01" sheetId="19" r:id="rId4"/>
+    <sheet name="8031300-CF01" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -276,6 +276,13 @@
   </si>
   <si>
     <t>变更时间</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -727,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:XFD1048576"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,12 +746,12 @@
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,19 +768,22 @@
         <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -789,30 +799,31 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="J2" t="s">
+      <c r="I2" s="3"/>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>78</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>79</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -828,24 +839,25 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="J3">
+      <c r="I3" s="3"/>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -861,27 +873,28 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="J4">
+      <c r="I4" s="3"/>
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -897,24 +910,25 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="J5">
+      <c r="I5" s="3"/>
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -930,21 +944,22 @@
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="J6">
+      <c r="I6" s="3"/>
+      <c r="K6">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -960,29 +975,30 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -998,15 +1014,16 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1022,15 +1039,16 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1046,15 +1064,16 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1070,15 +1089,16 @@
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1094,17 +1114,18 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1120,15 +1141,16 @@
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1144,15 +1166,16 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1168,15 +1191,16 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1192,15 +1216,16 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1216,15 +1241,16 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1240,15 +1266,16 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1264,15 +1291,16 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1288,17 +1316,18 @@
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1314,17 +1343,18 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1340,15 +1370,16 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1359,8 +1390,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1376,15 +1408,16 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1400,15 +1433,16 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1422,11 +1456,12 @@
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,13 +1472,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,30 +1495,34 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1500,12 +1539,15 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1517,13 +1559,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1540,12 +1582,15 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/05_Excel_compare/version_2.xlsx
+++ b/05_Excel_compare/version_2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
     <sheet name="8031230-CF01" sheetId="14" r:id="rId2"/>
     <sheet name="8031270-CF01" sheetId="20" r:id="rId3"/>
-    <sheet name="8031280-BF01" sheetId="19" r:id="rId4"/>
+    <sheet name="8031280-CF01" sheetId="19" r:id="rId4"/>
     <sheet name="8031300-CF01" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="84">
   <si>
     <t>序号</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8031280-BF01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采暖水壶进水管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +279,13 @@
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8031280-CF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 类型2_名称2</t>
   </si>
 </sst>
 </file>
@@ -306,10 +309,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,7 +343,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +627,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -677,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -694,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -714,7 +715,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>44687</v>
@@ -736,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -752,61 +753,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -814,39 +813,37 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="K3">
         <v>1</v>
       </c>
@@ -858,29 +855,27 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="K4">
         <v>8</v>
       </c>
@@ -891,33 +886,31 @@
         <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="H5">
+        <v>3</v>
+      </c>
       <c r="K5">
         <v>20</v>
       </c>
@@ -925,64 +918,61 @@
         <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="K6">
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="K7">
@@ -992,476 +982,433 @@
         <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="H18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>76</v>
+      <c r="I21" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1486,25 +1433,25 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1516,13 +1463,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1530,25 +1482,152 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1573,25 +1654,25 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
